--- a/Modelagem Svigufo.xlsx
+++ b/Modelagem Svigufo.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Modelagem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>Instituição</t>
   </si>
@@ -30,115 +25,106 @@
     <t>Nome</t>
   </si>
   <si>
+    <t>Localidade</t>
+  </si>
+  <si>
     <t>Instituição A</t>
   </si>
   <si>
+    <t>Av. Barão de Limeira, 385 - São Paulo SP, Brasil, Planeta Terra</t>
+  </si>
+  <si>
+    <t>Usuários</t>
+  </si>
+  <si>
+    <t>Tipo_Usuário</t>
+  </si>
+  <si>
+    <t>Tipo_Evento</t>
+  </si>
+  <si>
     <t>ID_Instituição</t>
   </si>
   <si>
+    <t>ID_Tipo_Usuário</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
     <t>Ariel</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Comum</t>
   </si>
   <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Antônio</t>
+  </si>
+  <si>
     <t>Administrador</t>
   </si>
   <si>
+    <t>Jogos</t>
+  </si>
+  <si>
+    <t>Rogério</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Tipos_Status</t>
+  </si>
+  <si>
     <t>Eventos</t>
   </si>
   <si>
-    <t>Tipo_Usuário</t>
-  </si>
-  <si>
-    <t>Acesso</t>
-  </si>
-  <si>
-    <t>Localidade</t>
-  </si>
-  <si>
-    <t>Av. Barão de Limeira, 385 - São Paulo SP, Brasil, Planeta Terra</t>
-  </si>
-  <si>
     <t>ID_Tipo_Evento</t>
   </si>
   <si>
-    <t>Tipo_Evento</t>
-  </si>
-  <si>
-    <t>Livre</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>Jogos</t>
-  </si>
-  <si>
-    <t>Banco de Dados</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>Restrito</t>
-  </si>
-  <si>
-    <t>Rogério</t>
-  </si>
-  <si>
-    <t>Antônio</t>
+    <t>AcessoLivre_Bool</t>
+  </si>
+  <si>
+    <t>Horário</t>
+  </si>
+  <si>
+    <t>Aguardando Admin</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Aceito</t>
+  </si>
+  <si>
+    <t>Aguardando Confirmação</t>
+  </si>
+  <si>
+    <t>Inscrições/Convites</t>
+  </si>
+  <si>
+    <t>ID_Destinatário</t>
   </si>
   <si>
     <t>ID_Evento</t>
   </si>
   <si>
-    <t>ID_Tipo_Usuário</t>
-  </si>
-  <si>
-    <t>Horário</t>
-  </si>
-  <si>
     <t>Palestrante_Bool</t>
   </si>
   <si>
-    <t>True</t>
+    <t>ID_Status</t>
+  </si>
+  <si>
+    <t>ID_Remetente</t>
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>ID_Status</t>
-  </si>
-  <si>
-    <t>Tipos_Status</t>
-  </si>
-  <si>
-    <t>Aguardando Admin</t>
-  </si>
-  <si>
-    <t>Aceito</t>
-  </si>
-  <si>
-    <t>Aguardando Confirmação</t>
-  </si>
-  <si>
-    <t>Usuários</t>
-  </si>
-  <si>
-    <t>ID_Destinatário</t>
-  </si>
-  <si>
-    <t>ID_Remetente</t>
-  </si>
-  <si>
-    <t>Inscrições/Convites</t>
-  </si>
-  <si>
-    <t>AcessoLivre_Bool</t>
   </si>
   <si>
     <t>NULL</t>
@@ -147,23 +133,181 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,18 +316,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -193,104 +523,417 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -339,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -374,7 +1017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,43 +1191,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="60.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="17.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.1047619047619" customWidth="1"/>
+    <col min="11" max="11" width="25.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="14.2190476190476" customWidth="1"/>
+    <col min="14" max="14" width="16.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -597,7 +1237,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -619,15 +1259,15 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -641,7 +1281,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -657,16 +1297,10 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -675,49 +1309,43 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="J6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="18"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4</v>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -725,31 +1353,31 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="4">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -757,25 +1385,25 @@
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="4">
         <v>5</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -789,24 +1417,32 @@
         <v>4</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4">
         <v>6</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="4">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -819,17 +1455,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="I11" s="14"/>
       <c r="L11" s="2"/>
       <c r="M11" s="4">
         <v>8</v>
@@ -838,279 +1468,252 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="7"/>
+      <c r="J12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="18"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <f ca="1">NOW()</f>
-        <v>43493.699552662038</v>
-      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="J13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="4">
         <v>14</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="4">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <f ca="1">NOW()</f>
+        <v>43494.0228819444</v>
+      </c>
       <c r="J15" s="4">
         <v>15</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
       <c r="J16" s="4">
         <v>16</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="4">
-        <v>9</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="4">
-        <v>10</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="4">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4">
-        <v>13</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4">
-        <v>15</v>
-      </c>
-      <c r="I18" s="10">
-        <v>2</v>
-      </c>
+      <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="4">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4">
-        <v>13</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4">
-        <v>14</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>40</v>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="D20" s="4">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4">
+        <v>15</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="D21" s="4">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="4">
+        <v>14</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1118,7 +1721,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1126,15 +1729,16 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
+      <c r="F29" s="14"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1142,7 +1746,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1150,7 +1754,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1158,7 +1762,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1166,143 +1770,144 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D39" s="9"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D43" s="9"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D44" s="9"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+    <row r="35" spans="4:9">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39" s="12"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" s="12"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="4:9">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D11:H11"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D18:I18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>